--- a/1.xlsx
+++ b/1.xlsx
@@ -31,7 +31,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +71,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -95,6 +113,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -399,76 +420,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -420,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J1" sqref="J1:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
@@ -438,9 +438,12 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="5"/>
       <c r="C2" s="9"/>
@@ -450,9 +453,12 @@
       <c r="G2" s="7"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -462,9 +468,12 @@
       <c r="G3" s="3"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -474,9 +483,12 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -486,9 +498,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -499,8 +514,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="8"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -510,9 +528,12 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
@@ -522,9 +543,12 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
@@ -534,9 +558,12 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
@@ -547,8 +574,11 @@
       <c r="H10" s="3"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -558,9 +588,12 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
@@ -570,9 +603,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="9"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
@@ -582,9 +618,12 @@
       <c r="G13" s="2"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -595,8 +634,11 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="5"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -606,9 +648,12 @@
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -618,9 +663,12 @@
       <c r="G16" s="8"/>
       <c r="H16" s="5"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -630,55 +678,235 @@
       <c r="G17" s="7"/>
       <c r="H17" s="4"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="7"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M32"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
